--- a/doc/内部設計/ファイル構成一覧表ver1.0.xlsx
+++ b/doc/内部設計/ファイル構成一覧表ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6A260C-63F0-4719-87B1-967BEE6E798D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B0665A-F8A5-4869-8191-D6FD91909665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -208,6 +208,264 @@
   </si>
   <si>
     <t>DsDAO.java</t>
+  </si>
+  <si>
+    <t>仲山</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田,藤澤,平井</t>
+    <rPh sb="0" eb="2">
+      <t>ワダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フジサワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中泉,佐々木</t>
+    <rPh sb="0" eb="2">
+      <t>ナカイズミ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ササキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン用のjspです。</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録用の用のjspです。</t>
+    <rPh sb="0" eb="5">
+      <t>シンキトウロクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー用の用のjspです。</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案ページ用のjspです。</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理ページ用のjspです。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン用のservletです。</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録用の用のservletです。</t>
+    <rPh sb="0" eb="5">
+      <t>シンキトウロクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー用の用のservletです。</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案ページ用のservletです。</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理ページ用のservletです。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">css </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/css/login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/css/idpwRegist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idpwRegist.css</t>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/css/menu.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu.css</t>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/css/rec.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rec.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/css/ds.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ds.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン用のcssです。</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録用の用のcssです。</t>
+    <rPh sb="0" eb="5">
+      <t>シンキトウロクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー用の用のcssです。</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案ページ用のcssです。</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理ページ用のcssです。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー関連のデータ操作モデルです。</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案データ関連のデータ操作モデルです。</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理関連のデータ操作モデルです。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー関連のデータアクセス用です。</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録関連のデータアクセス用です。</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案データ関連のデータアクセス用です。</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理関連のデータアクセス用です。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -600,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -647,8 +905,12 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
@@ -664,8 +926,12 @@
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
@@ -681,8 +947,12 @@
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
@@ -698,8 +968,12 @@
       <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
@@ -715,8 +989,12 @@
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
@@ -743,8 +1021,12 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
@@ -760,8 +1042,12 @@
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
@@ -777,7 +1063,9 @@
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -794,8 +1082,12 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
@@ -811,8 +1103,12 @@
       <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
@@ -839,8 +1135,12 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
@@ -856,8 +1156,12 @@
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
@@ -873,8 +1177,12 @@
       <c r="E17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
@@ -901,8 +1209,12 @@
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
@@ -918,8 +1230,12 @@
       <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
@@ -935,8 +1251,12 @@
       <c r="E21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
@@ -952,8 +1272,12 @@
       <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
@@ -971,55 +1295,105 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
@@ -1315,21 +1689,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1500,10 +1859,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1526,20 +1911,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/内部設計/ファイル構成一覧表ver1.0.xlsx
+++ b/doc/内部設計/ファイル構成一覧表ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B0665A-F8A5-4869-8191-D6FD91909665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2FE1AD-793F-4C70-8D9B-5F75F7B09658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1066,7 +1066,9 @@
       <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
@@ -1689,6 +1691,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1859,36 +1876,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1911,9 +1902,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/内部設計/ファイル構成一覧表ver1.0.xlsx
+++ b/doc/内部設計/ファイル構成一覧表ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2FE1AD-793F-4C70-8D9B-5F75F7B09658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6E2F78-34F5-4BCB-AE4E-5D2C99A4604C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -357,44 +357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン用のcssです。</t>
-    <rPh sb="4" eb="5">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録用の用のcssです。</t>
-    <rPh sb="0" eb="5">
-      <t>シンキトウロクヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインメニュー用の用のcssです。</t>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>提案ページ用のcssです。</t>
-    <rPh sb="0" eb="2">
-      <t>テイアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理ページ用のcssです。</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー関連のデータ操作モデルです。</t>
     <rPh sb="4" eb="6">
       <t>カンレン</t>
@@ -464,6 +426,87 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン用のcssです。(login.jsp用)</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録用の用のcssです。(idpwRegist.jsp用)</t>
+    <rPh sb="0" eb="5">
+      <t>シンキトウロクヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー用の用のcssです。(menu.jsp用)</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案ページ用のcssです。(rec.jsp用)</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理ページ用のcssです。(ds.jsp用)</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/css/header.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通で使うヘッダー用のcssです。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田</t>
+    <rPh sb="0" eb="2">
+      <t>ワダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -858,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1138,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>42</v>
@@ -1159,7 +1202,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>43</v>
@@ -1180,7 +1223,7 @@
         <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>44</v>
@@ -1212,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>42</v>
@@ -1233,7 +1276,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>42</v>
@@ -1254,7 +1297,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>43</v>
@@ -1275,7 +1318,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>44</v>
@@ -1307,7 +1350,7 @@
         <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>42</v>
@@ -1328,7 +1371,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>42</v>
@@ -1349,7 +1392,7 @@
         <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>42</v>
@@ -1370,7 +1413,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>43</v>
@@ -1391,7 +1434,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>44</v>
@@ -1402,11 +1445,21 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
@@ -1691,21 +1744,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1876,10 +1914,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1902,20 +1966,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>